--- a/rpa/range.xlsx
+++ b/rpa/range.xlsx
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
+        <v>63</v>
+      </c>
+      <c r="C7" t="n">
         <v>9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -509,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/rpa/range.xlsx
+++ b/rpa/range.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -509,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
